--- a/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
+++ b/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="画面デザイン" sheetId="1" r:id="rId3"/>
+    <sheet name="入出力項目" sheetId="4" r:id="rId4"/>
+    <sheet name="処理概要" sheetId="5" r:id="rId5"/>
+    <sheet name="テーブル" sheetId="8" r:id="rId6"/>
+    <sheet name="備考" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -157,6 +161,362 @@
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>物理名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理名</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名</t>
+    <rPh sb="0" eb="1">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者フラグ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード最終更新日</t>
+    <rPh sb="5" eb="7">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名（日本語）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名（ANK）</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass_upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upd_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK01001_Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +620,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -533,11 +905,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -602,6 +1007,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,18 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,6 +1095,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1469,7 +1919,9 @@
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1508,7 +1960,9 @@
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="10">
+        <v>44111</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -1879,17 +2333,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
@@ -1909,37 +2367,37 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="50">
+      <c r="W1" s="29"/>
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y1" s="50"/>
       <c r="Z1" s="50"/>
       <c r="AA1" s="50"/>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
+      <c r="AC1" s="29"/>
       <c r="AD1" s="51">
         <f>表紙!M17</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
@@ -1959,10 +2417,10 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="50">
         <f>表紙!U16</f>
         <v>0</v>
@@ -1970,17 +2428,17 @@
       <c r="Y2" s="50"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="50"/>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2161,33 +2619,33 @@
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="30"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="32"/>
@@ -2196,33 +2654,33 @@
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
       <c r="AC9" s="30"/>
       <c r="AD9" s="31"/>
       <c r="AE9" s="32"/>
@@ -2231,33 +2689,33 @@
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="30"/>
       <c r="AD10" s="31"/>
       <c r="AE10" s="32"/>
@@ -2266,33 +2724,33 @@
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
       <c r="AC11" s="30"/>
       <c r="AD11" s="31"/>
       <c r="AE11" s="32"/>
@@ -2301,33 +2759,33 @@
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="30"/>
       <c r="AD12" s="31"/>
       <c r="AE12" s="32"/>
@@ -2336,33 +2794,33 @@
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
       <c r="AC13" s="30"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="32"/>
@@ -2371,33 +2829,33 @@
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
       <c r="AC14" s="30"/>
       <c r="AD14" s="31"/>
       <c r="AE14" s="32"/>
@@ -2406,33 +2864,33 @@
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
       <c r="AC15" s="30"/>
       <c r="AD15" s="31"/>
       <c r="AE15" s="32"/>
@@ -2441,33 +2899,33 @@
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
       <c r="AC16" s="30"/>
       <c r="AD16" s="31"/>
       <c r="AE16" s="32"/>
@@ -2476,33 +2934,33 @@
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="34"/>
       <c r="AE17" s="35"/>
@@ -2511,33 +2969,33 @@
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="31"/>
       <c r="AE18" s="32"/>
@@ -2546,33 +3004,33 @@
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
       <c r="AC19" s="30"/>
       <c r="AD19" s="31"/>
       <c r="AE19" s="32"/>
@@ -2581,33 +3039,33 @@
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="31"/>
       <c r="AE20" s="32"/>
@@ -2616,33 +3074,33 @@
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="31"/>
       <c r="AE21" s="32"/>
@@ -2651,33 +3109,33 @@
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="31"/>
       <c r="AE22" s="32"/>
@@ -2686,33 +3144,33 @@
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="31"/>
       <c r="AE23" s="32"/>
@@ -2748,9 +3206,9 @@
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="23"/>
-      <c r="AE24" s="24"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -2925,23 +3383,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="3" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.625" style="1"/>
+    <col min="29" max="29" width="3.625" style="1" customWidth="1"/>
+    <col min="30" max="33" width="3" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="17" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
@@ -2961,37 +3424,37 @@
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="50">
+      <c r="W1" s="29"/>
+      <c r="X1" s="50" t="str">
         <f>表紙!M16</f>
-        <v>0</v>
+        <v>髙田</v>
       </c>
       <c r="Y1" s="50"/>
       <c r="Z1" s="50"/>
       <c r="AA1" s="50"/>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
+      <c r="AC1" s="29"/>
       <c r="AD1" s="51">
         <f>表紙!M17</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="17" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
@@ -3011,10 +3474,10 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="50">
         <f>表紙!U16</f>
         <v>0</v>
@@ -3022,17 +3485,17 @@
       <c r="Y2" s="50"/>
       <c r="Z2" s="50"/>
       <c r="AA2" s="50"/>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="51">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -3876,6 +4339,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AB2:AC2"/>
@@ -3884,10 +4351,4525 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:AA2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="3" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="3" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="17" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="50" t="str">
+        <f>表紙!M16</f>
+        <v>髙田</v>
+      </c>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="51">
+        <f>表紙!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="17" t="str">
+        <f>表紙!O11</f>
+        <v>ログイン</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="50">
+        <f>表紙!U16</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="51">
+        <f>表紙!U17</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="58">
+        <v>1</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="58">
+        <v>2</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="58">
+        <v>3</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="7"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="V7:AA7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:U8">
+      <formula1>"text,textarea,button,link"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="17" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="50" t="str">
+        <f>表紙!M16</f>
+        <v>髙田</v>
+      </c>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="51">
+        <f>表紙!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="17" t="str">
+        <f>表紙!O11</f>
+        <v>ログイン</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="50">
+        <f>表紙!U16</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="51">
+        <f>表紙!U17</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="65"/>
+      <c r="U6" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="7"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="7"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="7"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="7"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="7"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="7"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="7"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="7"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="25" width="3.625" style="1"/>
+    <col min="26" max="26" width="3.625" style="1" customWidth="1"/>
+    <col min="27" max="30" width="2.875" style="1" customWidth="1"/>
+    <col min="31" max="32" width="3.625" style="1"/>
+    <col min="33" max="36" width="2.875" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="17" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="50" t="str">
+        <f>表紙!M16</f>
+        <v>髙田</v>
+      </c>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="51">
+        <f>表紙!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="17" t="str">
+        <f>表紙!O11</f>
+        <v>ログイン</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="50">
+        <f>表紙!U16</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="51">
+        <f>表紙!U17</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="57">
+        <v>1</v>
+      </c>
+      <c r="O8" s="57">
+        <v>2</v>
+      </c>
+      <c r="P8" s="57">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>4</v>
+      </c>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="7"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="53">
+        <v>1</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="7"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="53">
+        <v>2</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="7"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="53">
+        <v>3</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="7"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="53">
+        <v>4</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="7"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="53">
+        <v>5</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="7"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="53">
+        <v>6</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="7"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="53">
+        <v>7</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="7"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="53">
+        <v>8</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="7"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="53">
+        <v>9</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="7"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="53">
+        <v>10</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="7"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="53">
+        <v>11</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="7"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="7"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="7"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="7"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="7"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="7"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="7"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="99">
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="Z7:AC8"/>
+    <mergeCell ref="AD7:AH8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="R7:U8"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="3.625" style="1"/>
+    <col min="24" max="27" width="2.875" style="1" customWidth="1"/>
+    <col min="28" max="29" width="3.625" style="1"/>
+    <col min="30" max="33" width="2.875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="17" t="str">
+        <f>表紙!O9</f>
+        <v>勤怠管理システム</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="29"/>
+      <c r="X1" s="50" t="str">
+        <f>表紙!M16</f>
+        <v>髙田</v>
+      </c>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="51">
+        <f>表紙!M17</f>
+        <v>44111</v>
+      </c>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="17" t="str">
+        <f>表紙!O11</f>
+        <v>ログイン</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="50">
+        <f>表紙!U16</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="51">
+        <f>表紙!U17</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="7"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="7"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="7"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="7"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="7"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="7"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="7"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="7"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="7"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="7"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="7"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="7"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="7"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
+++ b/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -169,13 +169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特になし</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
@@ -214,16 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要素の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -234,20 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>姓</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名</t>
-    <rPh sb="0" eb="1">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理者フラグ</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -255,16 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード最終更新日</t>
-    <rPh sb="5" eb="7">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成日時</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -299,15 +258,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -352,10 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デフォルト値</t>
     <rPh sb="5" eb="6">
       <t>チ</t>
@@ -370,79 +317,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mail_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pass_upd_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ins_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ins_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upd_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sei</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mei</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>admin_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -482,15 +361,205 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>userId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：一般ユーザ
+1：管理者</t>
+    <rPh sb="2" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginInput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginConf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ログイン画面で使用するformオブジェクトを返す。</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="4">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙田</t>
+    <rPh sb="0" eb="2">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userId</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login</t>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名（名）</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード更新日時</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upd_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>upd_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル論理名：</t>
+    <rPh sb="4" eb="7">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル物理名：</t>
+    <rPh sb="4" eb="7">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,23 +567,214 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User</t>
+    <t>LoginForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginForm, BindingResult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 入力された情報の入力チェックを行う。</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1. 入力チェックのエラーが発生した場合</t>
+    <rPh sb="5" eb="11">
+      <t>ニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="22">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自画面遷移し、エラーメッセージを表示する。</t>
+    <rPh sb="0" eb="5">
+      <t>ジガメ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1-1. 認証エラーが発生した場合</t>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1-2. 認証エラーが発生していない場合</t>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2. 入力エラーが発生していない場合</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 戻り値（ログイン画面のパス）を返し、ログイン画面を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値（月別一覧画面のパス）を返し、月別一覧画面を表示する。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1. 認証処理メソッドを呼び出し、入力情報の認証処理を行う。</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自画面遷移し、エラーメッセージを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>項目の型</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=4, max=4, message)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=8, max=20, message)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証処理は共通部品を使用する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -942,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -968,13 +1228,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,67 +1264,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,56 +1327,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,23 +1752,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1523,21 +1789,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1558,21 +1824,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1663,25 +1929,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1702,21 +1968,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1737,25 +2003,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1776,21 +2042,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1914,27 +2180,27 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1955,27 +2221,27 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24">
         <v>44111</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2303,6 +2569,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2310,12 +2582,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2341,104 +2607,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="50">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2539,676 +2805,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="39" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="40"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="32"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="41">
+      <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36">
+        <v>44111</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="44"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="32"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="44"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="32"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="44"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="32"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="44"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="44"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="32"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="44"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="32"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="44"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="32"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="44"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="32"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="44"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="32"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="44"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="51"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="32"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="44"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="32"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="44"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="32"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="32"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="32"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="44"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="32"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="54"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3284,62 +3556,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3356,22 +3588,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3398,104 +3670,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="50">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4376,104 +4648,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="50">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4547,182 +4819,190 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="48">
+        <v>1</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="58">
-        <v>1</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="58">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="58">
+      <c r="B8" s="48">
         <v>3</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -5353,31 +5633,19 @@
       <c r="AG26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="V7:AA7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
+  <mergeCells count="36">
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:AF6"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="X8:AF8"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:E1"/>
@@ -5386,11 +5654,27 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J6:O6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:U8">
-      <formula1>"text,textarea,button,link"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P8">
+      <formula1>"text,textarea,password,button,link"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5400,7 +5684,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -5416,104 +5700,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="50">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -5553,7 +5837,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5625,43 +5909,43 @@
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="65"/>
-      <c r="U6" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="65"/>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="16"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
@@ -5685,11 +5969,11 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
       <c r="S7" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -5743,7 +6027,9 @@
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -5812,42 +6098,42 @@
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="4"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5875,77 +6161,87 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="12"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="7"/>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="16"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="7"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
@@ -5988,7 +6284,9 @@
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -6057,140 +6355,123 @@
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="4"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="4"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
@@ -6232,44 +6513,48 @@
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="7"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -6295,17 +6580,19 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
+      <c r="AE24" s="7"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -6330,14 +6617,14 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="7"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -6365,16 +6652,18 @@
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
+      <c r="AE26" s="7"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="7"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6400,17 +6689,19 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
+      <c r="AE27" s="7"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="7"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6435,18 +6726,20 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
+      <c r="AE28" s="7"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="7"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -6470,19 +6763,21 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="7"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -6505,14 +6800,14 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
+      <c r="AE30" s="7"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="7"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -6540,18 +6835,20 @@
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="7"/>
       <c r="AF31" s="6"/>
       <c r="AG31" s="7"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -6575,52 +6872,189 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
+      <c r="AE32" s="7"/>
       <c r="AF32" s="6"/>
       <c r="AG32" s="7"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="7"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="7"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="7"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="7"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:U1"/>
@@ -6628,6 +7062,11 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6654,110 +7093,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="50" t="str">
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="29" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="51">
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="50">
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="29" t="s">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="51">
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -6837,11 +7276,15 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6875,11 +7318,15 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -6913,613 +7360,633 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" s="56"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="11">
         <v>1</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="11">
         <v>2</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="57">
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="53">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
+      <c r="C9" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="66">
+        <v>4</v>
+      </c>
+      <c r="W9" s="66"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="53">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
+      <c r="C10" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="66">
+        <v>50</v>
+      </c>
+      <c r="W10" s="66"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="53">
+      <c r="B11" s="9">
         <v>3</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
+      <c r="C11" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="66">
+        <v>100</v>
+      </c>
+      <c r="W11" s="66"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="53">
+      <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
+      <c r="C12" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="66">
+        <v>20</v>
+      </c>
+      <c r="W12" s="66"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="63"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="53">
+      <c r="B13" s="9">
         <v>5</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
+      <c r="C13" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="66">
+        <v>20</v>
+      </c>
+      <c r="W13" s="66"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="53">
+      <c r="B14" s="9">
         <v>6</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
+      <c r="C14" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="66">
+        <v>1</v>
+      </c>
+      <c r="W14" s="66"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="53">
+      <c r="B15" s="9">
         <v>7</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
+      <c r="C15" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="53">
+      <c r="B16" s="9">
         <v>8</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
+      <c r="C16" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="66">
+        <v>50</v>
+      </c>
+      <c r="W16" s="66"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="53">
+      <c r="B17" s="9">
         <v>9</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
+      <c r="C17" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="53">
+      <c r="B18" s="9">
         <v>10</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
+      <c r="C18" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="66">
+        <v>50</v>
+      </c>
+      <c r="W18" s="66"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="53">
+      <c r="B19" s="9">
         <v>11</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
+      <c r="C19" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="7"/>
     </row>
@@ -7790,64 +8257,40 @@
       <c r="AJ26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
+  <mergeCells count="101">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="V7:W8"/>
     <mergeCell ref="X7:Y8"/>
     <mergeCell ref="Z7:AC8"/>
@@ -7858,38 +8301,64 @@
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:Q7"/>
     <mergeCell ref="R7:U8"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AC19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7915,104 +8384,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="17" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="29" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="50" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="29" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="17" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="29" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="50">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="29" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -8052,7 +8521,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -8858,11 +9327,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:U1"/>
@@ -8870,6 +9334,11 @@
     <mergeCell ref="X1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
+++ b/docs/画面設計図/【勤怠管理システム_画面設計書】KK01001_ログイン画面.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -17,8 +17,7 @@
     <sheet name="画面デザイン" sheetId="1" r:id="rId3"/>
     <sheet name="入出力項目" sheetId="4" r:id="rId4"/>
     <sheet name="処理概要" sheetId="5" r:id="rId5"/>
-    <sheet name="テーブル" sheetId="8" r:id="rId6"/>
-    <sheet name="備考" sheetId="7" r:id="rId7"/>
+    <sheet name="備考" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -207,121 +206,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者フラグ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日時</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新者</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名（日本語）</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名（ANK）</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>桁数</t>
-    <rPh sb="0" eb="2">
-      <t>ケタスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルト値</t>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pass_upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>admin_flg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -377,17 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0：一般ユーザ
-1：管理者</t>
-    <rPh sb="2" eb="7">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -431,135 +309,6 @@
     <rPh sb="0" eb="2">
       <t>タカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mail_address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名（姓）</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sei</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名（名）</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mei</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード更新日時</t>
-    <rPh sb="5" eb="9">
-      <t>コウシンニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ins_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ins_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upd_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>upd_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル論理名：</t>
-    <rPh sb="4" eb="7">
-      <t>ロンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル物理名：</t>
-    <rPh sb="4" eb="7">
-      <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -750,11 +499,6 @@
   </si>
   <si>
     <t>NotEmpty
-Size(min=4, max=4, message)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NotEmpty
 Size(min=8, max=20, message)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -775,6 +519,36 @@
     <rPh sb="10" eb="12">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty
+Size(min=1, max=4, message)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル論理名：</t>
+  </si>
+  <si>
+    <t>テーブル物理名：</t>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -855,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,12 +651,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1227,15 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1381,32 +1140,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1752,23 +1493,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1789,21 +1530,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1824,21 +1565,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1929,25 +1670,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1968,21 +1709,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2003,25 +1744,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2042,21 +1783,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2180,27 +1921,27 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23" t="s">
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2221,27 +1962,27 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24">
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="21">
         <v>44111</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2607,104 +2348,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -2805,682 +2546,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="31" t="s">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="32"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="33">
+      <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
         <v>44111</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="44"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="41"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="44"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="44"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="44"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="44"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="51"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="44"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="44"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="44"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="54"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="51"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3670,104 +3411,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4648,104 +4389,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -4819,190 +4560,190 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
       <c r="AG5" s="7"/>
     </row>
     <row r="6" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="48">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="62" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="48">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="68"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="48">
+      <c r="B8" s="45">
         <v>3</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
@@ -5634,7 +5375,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P5:S5"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="P8:S8"/>
@@ -5642,23 +5382,24 @@
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X5:AF5"/>
     <mergeCell ref="X6:AF6"/>
     <mergeCell ref="X7:AF7"/>
     <mergeCell ref="X8:AF8"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="P5:S5"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="J5:O5"/>
     <mergeCell ref="J8:O8"/>
@@ -5700,104 +5441,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -5837,7 +5578,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5909,43 +5650,43 @@
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="16"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="13"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
@@ -5969,11 +5710,11 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="4"/>
       <c r="S7" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -6028,7 +5769,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6161,48 +5902,50 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="12"/>
+      <c r="AE12" s="9"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="13"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
@@ -6226,11 +5969,11 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="4"/>
       <c r="S14" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -6285,7 +6028,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6396,43 +6139,43 @@
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
@@ -6456,11 +6199,11 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="4"/>
       <c r="S21" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -6515,7 +6258,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -6553,7 +6296,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -6591,7 +6334,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6662,7 +6405,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6700,7 +6443,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -6738,7 +6481,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -6776,7 +6519,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -6847,7 +6590,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -6885,7 +6628,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -7076,1298 +6819,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="25" width="3.625" style="1"/>
-    <col min="26" max="26" width="3.625" style="1" customWidth="1"/>
-    <col min="27" max="30" width="2.875" style="1" customWidth="1"/>
-    <col min="31" max="32" width="3.625" style="1"/>
-    <col min="33" max="36" width="2.875" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="3.625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
-        <f>表紙!O9</f>
-        <v>勤怠管理システム</v>
-      </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26" t="str">
-        <f>表紙!M16</f>
-        <v>髙田</v>
-      </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="27">
-        <f>表紙!M17</f>
-        <v>44111</v>
-      </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
-        <f>表紙!O11</f>
-        <v>ログイン</v>
-      </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26">
-        <f>表紙!U16</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="27">
-        <f>表紙!U17</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="7"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="7"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="7"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="7"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="7"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="11">
-        <v>1</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>4</v>
-      </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="7"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="66">
-        <v>4</v>
-      </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="7"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="66">
-        <v>50</v>
-      </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="66">
-        <v>100</v>
-      </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="66">
-        <v>20</v>
-      </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9">
-        <v>5</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="66">
-        <v>20</v>
-      </c>
-      <c r="W13" s="66"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:36" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9">
-        <v>6</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="66">
-        <v>1</v>
-      </c>
-      <c r="W14" s="66"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="7"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9">
-        <v>7</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9">
-        <v>8</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="66">
-        <v>50</v>
-      </c>
-      <c r="W16" s="66"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="7"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9">
-        <v>9</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="63"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9">
-        <v>10</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="66">
-        <v>50</v>
-      </c>
-      <c r="W18" s="66"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="7"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9">
-        <v>11</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="7"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="6"/>
-      <c r="AJ20" s="7"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="7"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="7"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="7"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="7"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="6"/>
-      <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="7"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="Z7:AC8"/>
-    <mergeCell ref="AD7:AH8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="R7:U8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8384,104 +6835,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="52" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="24">
         <f>表紙!M17</f>
         <v>44111</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="52" t="str">
         <f>表紙!O11</f>
         <v>ログイン</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23">
         <f>表紙!U16</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="24">
         <f>表紙!U17</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -8521,7 +6972,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -8627,7 +7078,9 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8663,11 +7116,15 @@
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -8698,11 +7155,15 @@
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
